--- a/app/files/Requisition Report - template.xlsx
+++ b/app/files/Requisition Report - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41317872-0914-EB45-AEE0-7A33768817E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7354C1A-335E-1940-87B4-5D768F5ADD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43600" yWindow="640" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-140" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blank claim" sheetId="4" state="hidden" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>Lecture Hours</t>
   </si>
   <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
     <t>Practical Hours</t>
   </si>
   <si>
@@ -326,6 +320,12 @@
   </si>
   <si>
     <t>Rate (RM/h)</t>
+  </si>
+  <si>
+    <t>Total Cost (RM)</t>
+  </si>
+  <si>
+    <t>Cost (RM)</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -812,49 +812,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,7 +837,7 @@
     <xf numFmtId="1" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -888,7 +850,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,13 +871,48 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,15 +1265,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
@@ -1330,8 +1326,8 @@
       <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1347,8 +1343,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1364,10 +1360,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1630,9 +1626,9 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="26">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -1734,10 +1730,10 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="31">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -2004,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52350D63-41D9-EA47-BB9C-68858D5680CB}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2019,74 +2015,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2097,7 +2093,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -2108,72 +2104,72 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="45"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="59"/>
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="60"/>
+      <c r="A17" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="48"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="63"/>
+      <c r="A18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2224,7 +2220,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2235,70 +2231,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="55" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2309,8 +2305,8 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="74"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
@@ -2320,94 +2316,94 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="I8" s="68"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="57"/>
+      <c r="A9" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="45"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="D10" s="49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="76"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="76"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="76"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="77"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="78"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="76"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="76"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="78"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="72" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="76"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="78"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="78"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="78"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="78"/>
-    </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="79"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2432,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B3DB79-836A-9D44-BD6E-C1ED8B57ED2A}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2449,74 +2445,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2527,7 +2523,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -2538,96 +2534,94 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="45"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="59"/>
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="60"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="48"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" s="11" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="63"/>
+    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
@@ -2656,7 +2650,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2670,74 +2664,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2748,7 +2742,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -2759,72 +2753,72 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="45"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="59"/>
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="60"/>
+      <c r="A17" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="48"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="63"/>
+      <c r="A18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2875,7 +2869,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2889,74 +2883,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2967,7 +2961,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -2978,72 +2972,72 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="45"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="59"/>
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="60"/>
+      <c r="A17" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="48"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="63"/>
+      <c r="A18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3094,7 +3088,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3108,74 +3102,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3186,7 +3180,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -3197,72 +3191,72 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="45"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="59"/>
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="60"/>
+      <c r="A17" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="48"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="63"/>
+      <c r="A18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3313,7 +3307,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3327,74 +3321,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3405,7 +3399,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -3416,72 +3410,72 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="45"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="59"/>
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="60"/>
+      <c r="A17" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="48"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="63"/>
+      <c r="A18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3532,7 +3526,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3546,74 +3540,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3624,7 +3618,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -3635,72 +3629,72 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="45"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="59"/>
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="60"/>
+      <c r="A17" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="48"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="63"/>
+      <c r="A18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3750,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB6E51D-2C7A-794B-B329-6EDE9E742DA9}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B18"/>
+    <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3765,74 +3759,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3843,7 +3837,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
@@ -3854,72 +3848,72 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="45"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="59"/>
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="60"/>
+      <c r="A17" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="48"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="63"/>
+      <c r="A18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3975,17 +3969,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -4240,6 +4223,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
   <ds:schemaRefs>
@@ -4249,17 +4243,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4276,4 +4259,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/files/Requisition Report - template.xlsx
+++ b/app/files/Requisition Report - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F68136-F0A7-5A45-B790-3D6AA47F2454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413BD506-9B16-AF4D-BFFD-266BB26E8412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="33" r:id="rId1"/>
@@ -192,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,14 +265,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,26 +467,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -510,40 +499,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -551,8 +540,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -888,7 +880,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -899,69 +891,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>25</v>
       </c>
     </row>
@@ -973,8 +965,8 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="35"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -984,94 +976,94 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="27"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="37"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1092,7 +1084,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1106,73 +1098,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1184,7 +1176,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -1195,72 +1187,72 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1303,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3169EAB9-F038-5D49-BE9D-490BA028790E}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1318,73 +1310,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1396,7 +1388,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -1407,72 +1399,72 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1516,7 +1508,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1530,73 +1522,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1608,7 +1600,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -1619,72 +1611,72 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1728,7 +1720,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1742,73 +1734,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1820,7 +1812,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -1831,72 +1823,72 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1940,7 +1932,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1954,73 +1946,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2032,7 +2024,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -2043,72 +2035,72 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2151,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EECD41A-A611-3B4A-943E-F1F9BB7A594D}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2166,73 +2158,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2244,7 +2236,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -2255,72 +2247,72 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2364,7 +2356,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2378,73 +2370,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2456,7 +2448,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -2467,72 +2459,72 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2576,7 +2568,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2590,73 +2582,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2668,7 +2660,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -2679,72 +2671,72 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2784,6 +2776,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -3038,17 +3041,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3059,6 +3051,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3077,17 +3080,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
   <ds:schemaRefs>

--- a/app/files/Requisition Report - template.xlsx
+++ b/app/files/Requisition Report - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413BD506-9B16-AF4D-BFFD-266BB26E8412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B110912-508F-5D4B-8BAB-31EB3070146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="33" r:id="rId1"/>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B3DB79-836A-9D44-BD6E-C1ED8B57ED2A}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3169EAB9-F038-5D49-BE9D-490BA028790E}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/app/files/Requisition Report - template.xlsx
+++ b/app/files/Requisition Report - template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B110912-508F-5D4B-8BAB-31EB3070146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D18D155-1DBF-E541-9564-447515E82AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-920" windowWidth="38400" windowHeight="21100" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="33" r:id="rId1"/>
@@ -537,14 +537,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -574,6 +574,845 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C668-BE46-9C82-6146D828F7D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1171394768"/>
+        <c:axId val="1171353808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1171394768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171353808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1171353808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171394768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>37451</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>47091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>488965</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>64891</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9914C62-E9CE-28A3-3AAC-29B26B227714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC8F486-F76A-CA46-B2DB-FBA1C41A62CA}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="S83" zoomScale="150" workbookViewId="0">
+      <selection activeCell="AG64" sqref="AG64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -891,28 +1730,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="39"/>
@@ -1076,6 +1915,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1083,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B3DB79-836A-9D44-BD6E-C1ED8B57ED2A}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1098,27 +1938,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1127,7 +1967,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
@@ -1310,27 +2150,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1339,7 +2179,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
@@ -1522,27 +2362,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1551,7 +2391,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
@@ -1734,27 +2574,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1763,7 +2603,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
@@ -1946,27 +2786,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1975,7 +2815,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
@@ -2158,27 +2998,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -2187,7 +3027,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
@@ -2370,27 +3210,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -2399,7 +3239,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
@@ -2582,27 +3422,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -2611,7 +3451,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
@@ -2776,14 +3616,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3042,21 +3880,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3081,9 +3918,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/app/files/Requisition Report - template.xlsx
+++ b/app/files/Requisition Report - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D18D155-1DBF-E541-9564-447515E82AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5579E3CE-F5B1-D04B-813B-A2D388BA412A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-920" windowWidth="38400" windowHeight="21100" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,845 +574,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Overall!$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C668-BE46-9C82-6146D828F7D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1171394768"/>
-        <c:axId val="1171353808"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1171394768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1171353808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1171353808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1171394768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr baseline="0">
-          <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>37451</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>47091</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>488965</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>64891</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9914C62-E9CE-28A3-3AAC-29B26B227714}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1718,18 +879,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC8F486-F76A-CA46-B2DB-FBA1C41A62CA}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S83" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
       <selection activeCell="AG64" sqref="AG64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25" customWidth="1"/>
     <col min="3" max="8" width="12.33203125" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="34.5" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +903,7 @@
       <c r="H1" s="42"/>
       <c r="I1" s="42"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -1750,24 +911,24 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="22"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1807,7 +968,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3"/>
@@ -1817,7 +978,7 @@
       <c r="G8" s="4"/>
       <c r="I8" s="26"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
@@ -1826,7 +987,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1840,7 +1001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="27" t="s">
         <v>16</v>
       </c>
@@ -1848,7 +1009,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="35"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="29" t="s">
         <v>17</v>
       </c>
@@ -1856,7 +1017,7 @@
       <c r="C12" s="30"/>
       <c r="D12" s="36"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="29" t="s">
         <v>18</v>
       </c>
@@ -1864,7 +1025,7 @@
       <c r="C13" s="30"/>
       <c r="D13" s="36"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
@@ -1872,7 +1033,7 @@
       <c r="C14" s="30"/>
       <c r="D14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="29" t="s">
         <v>15</v>
       </c>
@@ -1880,7 +1041,7 @@
       <c r="C15" s="30"/>
       <c r="D15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="29" t="s">
         <v>14</v>
       </c>
@@ -1888,7 +1049,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +1057,7 @@
       <c r="C17" s="30"/>
       <c r="D17" s="36"/>
     </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" thickBot="1">
       <c r="A18" s="31" t="s">
         <v>21</v>
       </c>
@@ -1915,7 +1076,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1927,7 +1087,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25" style="4" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="4" customWidth="1"/>
@@ -1937,7 +1097,7 @@
     <col min="9" max="16384" width="8.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
@@ -1949,7 +1109,7 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -1957,7 +1117,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -1966,23 +1126,23 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +1168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -2018,7 +1178,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" customFormat="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
@@ -2026,7 +1186,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -2035,7 +1195,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -2044,14 +1204,14 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
@@ -2059,7 +1219,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
@@ -2067,50 +1227,50 @@
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" thickBot="1">
       <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -2139,7 +1299,7 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25" style="4" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="4" customWidth="1"/>
@@ -2149,7 +1309,7 @@
     <col min="9" max="16384" width="8.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
@@ -2161,7 +1321,7 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -2169,7 +1329,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -2178,23 +1338,23 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -2220,7 +1380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -2230,7 +1390,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" customFormat="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
@@ -2238,7 +1398,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -2247,7 +1407,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -2256,14 +1416,14 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
@@ -2271,7 +1431,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
@@ -2279,50 +1439,50 @@
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" thickBot="1">
       <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -2351,7 +1511,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25" style="4" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="4" customWidth="1"/>
@@ -2361,7 +1521,7 @@
     <col min="9" max="16384" width="8.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
@@ -2373,7 +1533,7 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -2381,7 +1541,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -2390,23 +1550,23 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +1592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -2442,7 +1602,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" customFormat="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
@@ -2450,7 +1610,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +1619,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -2468,14 +1628,14 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
@@ -2483,7 +1643,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
@@ -2491,50 +1651,50 @@
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" thickBot="1">
       <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -2563,7 +1723,7 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25" style="4" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="4" customWidth="1"/>
@@ -2573,7 +1733,7 @@
     <col min="9" max="16384" width="8.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
@@ -2585,7 +1745,7 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -2593,7 +1753,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -2602,23 +1762,23 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -2644,7 +1804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -2654,7 +1814,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" customFormat="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
@@ -2662,7 +1822,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -2671,7 +1831,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -2680,14 +1840,14 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
@@ -2695,7 +1855,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
@@ -2703,50 +1863,50 @@
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" thickBot="1">
       <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -2775,7 +1935,7 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25" style="4" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="4" customWidth="1"/>
@@ -2785,7 +1945,7 @@
     <col min="9" max="16384" width="8.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
@@ -2797,7 +1957,7 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -2805,7 +1965,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -2814,23 +1974,23 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -2856,7 +2016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -2866,7 +2026,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" customFormat="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
@@ -2874,7 +2034,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -2883,7 +2043,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -2892,14 +2052,14 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
@@ -2907,7 +2067,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
@@ -2915,50 +2075,50 @@
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" thickBot="1">
       <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -2987,7 +2147,7 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25" style="4" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="4" customWidth="1"/>
@@ -2997,7 +2157,7 @@
     <col min="9" max="16384" width="8.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
@@ -3009,7 +2169,7 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -3017,7 +2177,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -3026,23 +2186,23 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -3068,7 +2228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -3078,7 +2238,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" customFormat="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
@@ -3086,7 +2246,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -3095,7 +2255,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -3104,14 +2264,14 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
@@ -3119,7 +2279,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
@@ -3127,50 +2287,50 @@
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" thickBot="1">
       <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -3199,7 +2359,7 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25" style="4" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="4" customWidth="1"/>
@@ -3209,7 +2369,7 @@
     <col min="9" max="16384" width="8.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
@@ -3221,7 +2381,7 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -3229,7 +2389,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -3238,23 +2398,23 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -3280,7 +2440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -3290,7 +2450,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" customFormat="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
@@ -3298,7 +2458,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -3307,7 +2467,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -3316,14 +2476,14 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
@@ -3331,7 +2491,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
@@ -3339,50 +2499,50 @@
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" thickBot="1">
       <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -3411,7 +2571,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25" style="4" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" style="4" customWidth="1"/>
@@ -3421,7 +2581,7 @@
     <col min="9" max="16384" width="8.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
@@ -3433,7 +2593,7 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -3441,7 +2601,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -3450,23 +2610,23 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="22"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -3492,7 +2652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -3502,7 +2662,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" customFormat="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
@@ -3510,7 +2670,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -3519,7 +2679,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -3528,14 +2688,14 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
@@ -3543,7 +2703,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
@@ -3551,50 +2711,50 @@
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" thickBot="1">
       <c r="A18" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -3616,12 +2776,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3880,20 +3042,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3918,12 +3081,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>